--- a/q1q3_results.xlsx
+++ b/q1q3_results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27288" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27840" uniqueCount="515">
   <si>
     <t>981c026156904ab09124ecf24f22f308</t>
   </si>
@@ -1547,6 +1547,21 @@
   <si>
     <t>captions/v21_weather_3.vtt</t>
   </si>
+  <si>
+    <t>6888aaf869084ba9a5fa2ab5aa3407a0</t>
+  </si>
+  <si>
+    <t>captions/v10_social_23.vtt</t>
+  </si>
+  <si>
+    <t>captions/v16_weather_13.vtt</t>
+  </si>
+  <si>
+    <t>captions/v19_weather_9.vtt</t>
+  </si>
+  <si>
+    <t>captions/v22_weather_3.vtt</t>
+  </si>
 </sst>
 </file>
 
@@ -1877,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3411"/>
+  <dimension ref="A1:D3480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -49635,6 +49650,972 @@
       </c>
       <c r="D3411" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:4">
+      <c r="A3412" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3412" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3412" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3412" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:4">
+      <c r="A3413" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3413" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3413" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3413" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:4">
+      <c r="A3414" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3414" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3414" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3414" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:4">
+      <c r="A3415" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3415" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3415" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3415" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:4">
+      <c r="A3416" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3416" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3416" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:4">
+      <c r="A3417" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3417" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3417" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3417" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:4">
+      <c r="A3418" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3418" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3418" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3418" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:4">
+      <c r="A3419" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3419" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3419" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3419" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:4">
+      <c r="A3420" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3420" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3420" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3420" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:4">
+      <c r="A3421" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3421" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3421" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3421" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:4">
+      <c r="A3422" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3422" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3422" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3422" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:4">
+      <c r="A3423" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3423" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3423" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3423" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:4">
+      <c r="A3424" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3424" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3424" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3424" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:4">
+      <c r="A3425" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3425" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3425" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3425" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:4">
+      <c r="A3426" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3426" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3426" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3426" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:4">
+      <c r="A3427" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3427" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3427" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3427" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:4">
+      <c r="A3428" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3428" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3428" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3428" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:4">
+      <c r="A3429" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3429" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3429" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3429" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:4">
+      <c r="A3430" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3430" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3430" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3430" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:4">
+      <c r="A3431" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3431" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3431" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3431" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:4">
+      <c r="A3432" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3432" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3432" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:4">
+      <c r="A3433" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3433" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3433" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3433" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:4">
+      <c r="A3434" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3434" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3434" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3434" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:4">
+      <c r="A3435" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3435" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3435" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3435" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:4">
+      <c r="A3436" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3436" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3436" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3436" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:4">
+      <c r="A3437" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3437" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3437" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3437" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:4">
+      <c r="A3438" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3438" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3438" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3438" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:4">
+      <c r="A3439" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3439" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3439" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3439" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:4">
+      <c r="A3440" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3440" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3440" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3440" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:4">
+      <c r="A3441" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3441" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3441" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3441" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:4">
+      <c r="A3442" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3442" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3442" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3442" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:4">
+      <c r="A3443" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3443" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3443" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3443" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:4">
+      <c r="A3444" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3444" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3444" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3444" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:4">
+      <c r="A3445" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3445" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3445" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3445" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:4">
+      <c r="A3446" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3446" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3446" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:4">
+      <c r="A3447" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3447" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3447" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3447" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:4">
+      <c r="A3448" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3448" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3448" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3448" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:4">
+      <c r="A3449" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3449" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3449" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3449" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:4">
+      <c r="A3450" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3450" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3450" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3450" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:4">
+      <c r="A3451" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3451" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3451" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3451" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:4">
+      <c r="A3452" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3452" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3452" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3452" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:4">
+      <c r="A3453" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3453" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3453" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3453" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:4">
+      <c r="A3454" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3454" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3454" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3454" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:4">
+      <c r="A3455" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3455" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3455" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3455" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:4">
+      <c r="A3456" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3456" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3456" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3456" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:4">
+      <c r="A3457" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3457" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3457" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3457" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:4">
+      <c r="A3458" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3458" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3458" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3458" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:4">
+      <c r="A3459" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3459" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3459" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3459" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:4">
+      <c r="A3460" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3460" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3460" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3460" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:4">
+      <c r="A3461" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3461" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3461" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3461" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:4">
+      <c r="A3462" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3462" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3462" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3462" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:4">
+      <c r="A3463" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3463" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3463" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3463" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:4">
+      <c r="A3464" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3464" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3464" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3464" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:4">
+      <c r="A3465" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3465" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3465" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:4">
+      <c r="A3466" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3466" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3466" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3466" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:4">
+      <c r="A3467" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3467" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3467" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3467" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:4">
+      <c r="A3468" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3468" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3468" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3468" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:4">
+      <c r="A3469" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3469" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3469" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3469" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:4">
+      <c r="A3470" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3470" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3470" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3470" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:4">
+      <c r="A3471" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3471" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3471" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3471" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:4">
+      <c r="A3472" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3472" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3472" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3472" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:4">
+      <c r="A3473" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3473" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3473" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3473" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:4">
+      <c r="A3474" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3474" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3474" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3474" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:4">
+      <c r="A3475" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3475" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3475" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3475" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:4">
+      <c r="A3476" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3476" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3476" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3476" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:4">
+      <c r="A3477" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3477" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3477" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3477" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:4">
+      <c r="A3478" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3478" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3478" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3478" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:4">
+      <c r="A3479" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3479" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3479" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3479" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:4">
+      <c r="A3480" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3480" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3480" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3480" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -73177,7 +74158,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1731"/>
+  <dimension ref="A1:D1800"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -97417,6 +98398,972 @@
         <v>462</v>
       </c>
     </row>
+    <row r="1732" spans="1:4">
+      <c r="A1732" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4">
+      <c r="A1733" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4">
+      <c r="A1734" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4">
+      <c r="A1735" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4">
+      <c r="A1736" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4">
+      <c r="A1737" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4">
+      <c r="A1738" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4">
+      <c r="A1739" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4">
+      <c r="A1740" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4">
+      <c r="A1741" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4">
+      <c r="A1742" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4">
+      <c r="A1743" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4">
+      <c r="A1744" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4">
+      <c r="A1745" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4">
+      <c r="A1746" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4">
+      <c r="A1747" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4">
+      <c r="A1748" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4">
+      <c r="A1749" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4">
+      <c r="A1750" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4">
+      <c r="A1751" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4">
+      <c r="A1752" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4">
+      <c r="A1753" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4">
+      <c r="A1754" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4">
+      <c r="A1755" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4">
+      <c r="A1756" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4">
+      <c r="A1757" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4">
+      <c r="A1758" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4">
+      <c r="A1759" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4">
+      <c r="A1760" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4">
+      <c r="A1761" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4">
+      <c r="A1762" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4">
+      <c r="A1763" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4">
+      <c r="A1764" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4">
+      <c r="A1765" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4">
+      <c r="A1766" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4">
+      <c r="A1767" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4">
+      <c r="A1768" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4">
+      <c r="A1769" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4">
+      <c r="A1770" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4">
+      <c r="A1771" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4">
+      <c r="A1772" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4">
+      <c r="A1773" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4">
+      <c r="A1774" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4">
+      <c r="A1775" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4">
+      <c r="A1776" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4">
+      <c r="A1777" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4">
+      <c r="A1778" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4">
+      <c r="A1779" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4">
+      <c r="A1780" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4">
+      <c r="A1781" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4">
+      <c r="A1782" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:4">
+      <c r="A1783" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4">
+      <c r="A1784" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4">
+      <c r="A1785" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4">
+      <c r="A1786" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4">
+      <c r="A1787" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4">
+      <c r="A1788" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:4">
+      <c r="A1789" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4">
+      <c r="A1790" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4">
+      <c r="A1791" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4">
+      <c r="A1792" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4">
+      <c r="A1793" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4">
+      <c r="A1794" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4">
+      <c r="A1795" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4">
+      <c r="A1796" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4">
+      <c r="A1797" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4">
+      <c r="A1798" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4">
+      <c r="A1799" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4">
+      <c r="A1800" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>451</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
